--- a/Bai tap MS Excel CNTTCB_GUI.xlsx
+++ b/Bai tap MS Excel CNTTCB_GUI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI LIEU-CNTT_DQT\Chung chi ung dung_CNTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20400" windowHeight="7755" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="10.1" sheetId="1" r:id="rId1"/>
@@ -4492,14 +4492,14 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16695,7 +16695,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -21067,11 +21067,11 @@
       <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="199" t="s">
+      <c r="A10" s="196" t="s">
         <v>702</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
     </row>
@@ -21079,100 +21079,95 @@
       <c r="A11" s="141" t="s">
         <v>715</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="197" t="s">
         <v>716</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196" t="s">
+      <c r="C11" s="197"/>
+      <c r="D11" s="197" t="s">
         <v>717</v>
       </c>
-      <c r="E11" s="196"/>
+      <c r="E11" s="197"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="142">
         <v>0</v>
       </c>
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="198" t="s">
         <v>703</v>
       </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197" t="s">
+      <c r="C12" s="198"/>
+      <c r="D12" s="198" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="197"/>
+      <c r="E12" s="198"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="142">
         <v>5</v>
       </c>
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="198" t="s">
         <v>705</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197" t="s">
+      <c r="C13" s="198"/>
+      <c r="D13" s="198" t="s">
         <v>706</v>
       </c>
-      <c r="E13" s="197"/>
+      <c r="E13" s="198"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <v>7</v>
       </c>
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="198" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197" t="s">
+      <c r="C14" s="198"/>
+      <c r="D14" s="198" t="s">
         <v>708</v>
       </c>
-      <c r="E14" s="197"/>
+      <c r="E14" s="198"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="142">
         <v>10</v>
       </c>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="198" t="s">
         <v>709</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="198" t="s">
         <v>710</v>
       </c>
-      <c r="E15" s="197"/>
+      <c r="E15" s="198"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="142">
         <v>15</v>
       </c>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="198" t="s">
         <v>711</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197" t="s">
+      <c r="C16" s="198"/>
+      <c r="D16" s="198" t="s">
         <v>712</v>
       </c>
-      <c r="E16" s="197"/>
+      <c r="E16" s="198"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="142">
         <v>20</v>
       </c>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="198" t="s">
         <v>713</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="198" t="s">
+      <c r="C17" s="198"/>
+      <c r="D17" s="199" t="s">
         <v>714</v>
       </c>
-      <c r="E17" s="198"/>
+      <c r="E17" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -21183,6 +21178,11 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -21825,8 +21825,8 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -21891,7 +21891,7 @@
         <v>97</v>
       </c>
       <c r="D3" s="86">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -21910,7 +21910,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="86">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
@@ -21929,7 +21929,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="86">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -21948,7 +21948,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="86">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -21967,7 +21967,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="86">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
@@ -21986,7 +21986,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="86">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E8" s="86"/>
       <c r="F8" s="86"/>
@@ -22005,7 +22005,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="86">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="E9" s="86"/>
       <c r="F9" s="86"/>
@@ -22024,7 +22024,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="86">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E10" s="86"/>
       <c r="F10" s="86"/>
@@ -22043,7 +22043,7 @@
         <v>98</v>
       </c>
       <c r="D11" s="86">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="E11" s="86"/>
       <c r="F11" s="86"/>
@@ -22062,7 +22062,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="86">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
@@ -22081,7 +22081,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="86">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="E13" s="86"/>
       <c r="F13" s="86"/>

--- a/Bai tap MS Excel CNTTCB_GUI.xlsx
+++ b/Bai tap MS Excel CNTTCB_GUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20400" windowHeight="7755" firstSheet="22" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20400" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="10.1" sheetId="1" r:id="rId1"/>
@@ -4492,14 +4492,14 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -21067,11 +21067,11 @@
       <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="199" t="s">
         <v>702</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
     </row>
@@ -21079,95 +21079,100 @@
       <c r="A11" s="141" t="s">
         <v>715</v>
       </c>
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="196" t="s">
         <v>716</v>
       </c>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197" t="s">
+      <c r="C11" s="196"/>
+      <c r="D11" s="196" t="s">
         <v>717</v>
       </c>
-      <c r="E11" s="197"/>
+      <c r="E11" s="196"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="142">
         <v>0</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="197" t="s">
         <v>703</v>
       </c>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198" t="s">
+      <c r="C12" s="197"/>
+      <c r="D12" s="197" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="198"/>
+      <c r="E12" s="197"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="142">
         <v>5</v>
       </c>
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="197" t="s">
         <v>705</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198" t="s">
+      <c r="C13" s="197"/>
+      <c r="D13" s="197" t="s">
         <v>706</v>
       </c>
-      <c r="E13" s="198"/>
+      <c r="E13" s="197"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <v>7</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="197" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198" t="s">
+      <c r="C14" s="197"/>
+      <c r="D14" s="197" t="s">
         <v>708</v>
       </c>
-      <c r="E14" s="198"/>
+      <c r="E14" s="197"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="142">
         <v>10</v>
       </c>
-      <c r="B15" s="198" t="s">
+      <c r="B15" s="197" t="s">
         <v>709</v>
       </c>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198" t="s">
+      <c r="C15" s="197"/>
+      <c r="D15" s="197" t="s">
         <v>710</v>
       </c>
-      <c r="E15" s="198"/>
+      <c r="E15" s="197"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="142">
         <v>15</v>
       </c>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="197" t="s">
         <v>711</v>
       </c>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198" t="s">
+      <c r="C16" s="197"/>
+      <c r="D16" s="197" t="s">
         <v>712</v>
       </c>
-      <c r="E16" s="198"/>
+      <c r="E16" s="197"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="142">
         <v>20</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="197" t="s">
         <v>713</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="199" t="s">
+      <c r="C17" s="197"/>
+      <c r="D17" s="198" t="s">
         <v>714</v>
       </c>
-      <c r="E17" s="199"/>
+      <c r="E17" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -21178,11 +21183,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -21825,7 +21825,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
@@ -32868,8 +32868,8 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Bai tap MS Excel CNTTCB_GUI.xlsx
+++ b/Bai tap MS Excel CNTTCB_GUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20400" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20400" windowHeight="7755" firstSheet="25" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="10.1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1142">
   <si>
     <t>BẢNG DỰ TRÙ VẬT TƯ CÔNG TRÌNH</t>
   </si>
@@ -3148,49 +3148,25 @@
     <t>N1</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>SP. Toan - Ly</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>Dien tu - Tin Hoc</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>Toan Tin</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>Y - Nha - Duoc</t>
   </si>
   <si>
-    <t>301</t>
-  </si>
-  <si>
     <t>Thuy San</t>
   </si>
   <si>
-    <t>309</t>
-  </si>
-  <si>
     <t>CN Sinh hoc</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
     <t>SP. Hoa - Sinh</t>
-  </si>
-  <si>
-    <t>601</t>
   </si>
   <si>
     <t>Trong Trot</t>
@@ -4073,7 +4049,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4492,14 +4468,14 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4550,6 +4526,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12370,16 +12349,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>252780</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>81331</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414705</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>131887</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17587</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12390,7 +12369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3519855" y="2253031"/>
+          <a:off x="5691555" y="1652956"/>
           <a:ext cx="11194807" cy="3700094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16841,7 +16820,7 @@
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="E2" t="s">
         <v>119</v>
@@ -17556,16 +17535,16 @@
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F2" t="s">
         <v>655</v>
       </c>
       <c r="G2" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="H2" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -17659,7 +17638,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -18267,10 +18246,10 @@
         <v>256</v>
       </c>
       <c r="K2" s="177" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="L2" s="177" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -18538,7 +18517,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="77"/>
       <c r="N10" s="77" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="O10" s="77"/>
       <c r="P10" s="77"/>
@@ -18618,13 +18597,13 @@
         <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="G4" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="H4" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="I4" t="s">
         <v>754</v>
@@ -18657,7 +18636,7 @@
         <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="D7">
         <v>25693</v>
@@ -19170,7 +19149,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="E2" s="8">
         <v>40178</v>
@@ -19302,7 +19281,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="B11" t="s">
         <v>309</v>
@@ -19623,7 +19602,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="183" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="B20" s="184"/>
       <c r="C20" s="184"/>
@@ -19706,7 +19685,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="170" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -19725,25 +19704,25 @@
         <v>329</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="D2" s="163" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="E2" s="163" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="F2" s="163" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="G2" s="163" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="H2" s="163" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="I2" s="163" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -20855,7 +20834,7 @@
         <v>683</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="F11" s="137" t="s">
         <v>684</v>
@@ -21067,11 +21046,11 @@
       <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="199" t="s">
+      <c r="A10" s="196" t="s">
         <v>702</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
     </row>
@@ -21079,100 +21058,95 @@
       <c r="A11" s="141" t="s">
         <v>715</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="197" t="s">
         <v>716</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196" t="s">
+      <c r="C11" s="197"/>
+      <c r="D11" s="197" t="s">
         <v>717</v>
       </c>
-      <c r="E11" s="196"/>
+      <c r="E11" s="197"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="142">
         <v>0</v>
       </c>
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="198" t="s">
         <v>703</v>
       </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197" t="s">
+      <c r="C12" s="198"/>
+      <c r="D12" s="198" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="197"/>
+      <c r="E12" s="198"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="142">
         <v>5</v>
       </c>
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="198" t="s">
         <v>705</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197" t="s">
+      <c r="C13" s="198"/>
+      <c r="D13" s="198" t="s">
         <v>706</v>
       </c>
-      <c r="E13" s="197"/>
+      <c r="E13" s="198"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <v>7</v>
       </c>
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="198" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197" t="s">
+      <c r="C14" s="198"/>
+      <c r="D14" s="198" t="s">
         <v>708</v>
       </c>
-      <c r="E14" s="197"/>
+      <c r="E14" s="198"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="142">
         <v>10</v>
       </c>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="198" t="s">
         <v>709</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="198" t="s">
         <v>710</v>
       </c>
-      <c r="E15" s="197"/>
+      <c r="E15" s="198"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="142">
         <v>15</v>
       </c>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="198" t="s">
         <v>711</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197" t="s">
+      <c r="C16" s="198"/>
+      <c r="D16" s="198" t="s">
         <v>712</v>
       </c>
-      <c r="E16" s="197"/>
+      <c r="E16" s="198"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="142">
         <v>20</v>
       </c>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="198" t="s">
         <v>713</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="198" t="s">
+      <c r="C17" s="198"/>
+      <c r="D17" s="199" t="s">
         <v>714</v>
       </c>
-      <c r="E17" s="198"/>
+      <c r="E17" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -21183,6 +21157,11 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -25856,8 +25835,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25930,11 +25909,11 @@
       <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="218">
+        <v>101</v>
+      </c>
+      <c r="C5" s="97" t="s">
         <v>994</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>995</v>
       </c>
       <c r="D5" s="98">
         <v>22.5</v>
@@ -25956,11 +25935,11 @@
       <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="96" t="s">
-        <v>996</v>
+      <c r="B6" s="218">
+        <v>102</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D6" s="98">
         <v>20.5</v>
@@ -25979,11 +25958,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="s">
-        <v>998</v>
+      <c r="B7" s="218">
+        <v>103</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D7" s="98">
         <v>19.5</v>
@@ -26002,11 +25981,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="96" t="s">
-        <v>1000</v>
+      <c r="B8" s="218">
+        <v>104</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D8" s="98">
         <v>17.5</v>
@@ -26025,11 +26004,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
-        <v>1002</v>
+      <c r="B9" s="218">
+        <v>301</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D9" s="98">
         <v>19.5</v>
@@ -26048,11 +26027,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="96" t="s">
-        <v>1004</v>
+      <c r="B10" s="218">
+        <v>309</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D10" s="98">
         <v>20</v>
@@ -26071,11 +26050,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="96" t="s">
-        <v>1006</v>
+      <c r="B11" s="218">
+        <v>202</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="98">
         <v>22</v>
@@ -26094,11 +26073,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="96" t="s">
-        <v>1008</v>
+      <c r="B12" s="218">
+        <v>601</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D12" s="98">
         <v>24.5</v>
@@ -26121,7 +26100,7 @@
         <v>751</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D13" s="98">
         <v>21.5</v>
@@ -26149,7 +26128,7 @@
     </row>
     <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C15" s="212" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="212"/>
       <c r="E15" s="212"/>
@@ -26158,7 +26137,7 @@
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="102" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B16" s="102" t="s">
         <v>189</v>
@@ -26167,13 +26146,13 @@
         <v>692</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="G16" s="102" t="s">
         <v>155</v>
@@ -26185,32 +26164,32 @@
         <v>157</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="L16" s="102" t="s">
         <v>212</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="97" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B17" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="218"/>
       <c r="D17" s="105">
         <v>202</v>
       </c>
@@ -26236,12 +26215,12 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B18" s="104" t="s">
         <v>458</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="218"/>
       <c r="D18" s="105">
         <v>102</v>
       </c>
@@ -26267,12 +26246,12 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="97" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B19" s="104" t="s">
         <v>466</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="218"/>
       <c r="D19" s="105">
         <v>103</v>
       </c>
@@ -26298,12 +26277,12 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="97" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B20" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="218"/>
       <c r="D20" s="105">
         <v>104</v>
       </c>
@@ -26329,12 +26308,12 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B21" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="96"/>
+      <c r="C21" s="218"/>
       <c r="D21" s="105">
         <v>202</v>
       </c>
@@ -26360,12 +26339,12 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="97" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B22" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="96"/>
+      <c r="C22" s="218"/>
       <c r="D22" s="105">
         <v>101</v>
       </c>
@@ -26391,12 +26370,12 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="97" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="B23" s="104" t="s">
         <v>460</v>
       </c>
-      <c r="C23" s="96"/>
+      <c r="C23" s="218"/>
       <c r="D23" s="105">
         <v>102</v>
       </c>
@@ -26422,12 +26401,12 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="97" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B24" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="218"/>
       <c r="D24" s="105">
         <v>103</v>
       </c>
@@ -26453,12 +26432,12 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="97" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B25" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="C25" s="96"/>
+      <c r="C25" s="218"/>
       <c r="D25" s="105">
         <v>104</v>
       </c>
@@ -26484,12 +26463,12 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="97" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C26" s="96"/>
+        <v>1023</v>
+      </c>
+      <c r="C26" s="218"/>
       <c r="D26" s="105">
         <v>202</v>
       </c>
@@ -26545,7 +26524,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -26556,10 +26535,10 @@
         <v>415</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>107</v>
@@ -26567,10 +26546,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="D3" s="110">
         <v>4500</v>
@@ -26584,7 +26563,7 @@
         <v>724</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="D4" s="110">
         <v>800</v>
@@ -26595,10 +26574,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="D5" s="110">
         <v>10000</v>
@@ -26612,7 +26591,7 @@
         <v>725</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="D6" s="110">
         <v>8000</v>
@@ -26626,7 +26605,7 @@
         <v>428</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="D7" s="110">
         <v>2000</v>
@@ -26640,7 +26619,7 @@
         <v>873</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D8" s="110">
         <v>1600</v>
@@ -26651,21 +26630,21 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="D11" s="111" t="s">
         <v>312</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="F11" s="111" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="G11" s="111" t="s">
         <v>114</v>
@@ -26673,7 +26652,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="D12" s="112">
         <v>1E-3</v>
@@ -26690,22 +26669,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>4</v>
@@ -26723,7 +26702,7 @@
         <v>107</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>754</v>
@@ -26731,7 +26710,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B18" s="6">
         <v>300</v>
@@ -26739,7 +26718,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B19" s="6">
         <v>200</v>
@@ -26747,7 +26726,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B20" s="6">
         <v>75</v>
@@ -26755,7 +26734,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B21" s="6">
         <v>450</v>
@@ -26763,7 +26742,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="B22" s="6">
         <v>30</v>
@@ -26771,7 +26750,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B23" s="6">
         <v>350</v>
@@ -26779,7 +26758,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="B24" s="6">
         <v>190</v>
@@ -26787,7 +26766,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B25" s="6">
         <v>20</v>
@@ -26795,7 +26774,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B26" s="6">
         <v>360</v>
@@ -26803,7 +26782,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B27" s="6">
         <v>320</v>
@@ -26811,7 +26790,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B28" s="6">
         <v>240</v>
@@ -26819,7 +26798,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B29" s="6">
         <v>50</v>
@@ -26827,7 +26806,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B30" s="6">
         <v>500</v>
@@ -26835,7 +26814,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="B31" s="6">
         <v>20</v>
@@ -26870,7 +26849,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="213" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="213"/>
       <c r="C1" s="213"/>
@@ -26886,13 +26865,13 @@
         <v>860</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="E3" s="119" t="s">
         <v>944</v>
@@ -26901,10 +26880,10 @@
         <v>402</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="H3" s="119" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="I3" s="119"/>
     </row>
@@ -26913,7 +26892,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="116">
         <v>38108</v>
@@ -26930,7 +26909,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C5" s="116">
         <v>38112</v>
@@ -26947,7 +26926,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C6" s="116">
         <v>38121</v>
@@ -26964,7 +26943,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C7" s="116">
         <v>38109</v>
@@ -26981,7 +26960,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C8" s="116">
         <v>38126</v>
@@ -26998,7 +26977,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="C9" s="116">
         <v>38117</v>
@@ -27015,7 +26994,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="C10" s="116">
         <v>38119</v>
@@ -27032,7 +27011,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C11" s="116">
         <v>38124</v>
@@ -27049,7 +27028,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="C12" s="116">
         <v>38123</v>
@@ -27066,7 +27045,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="C13" s="116">
         <v>38114</v>
@@ -27083,7 +27062,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C14" s="116">
         <v>38118</v>
@@ -27100,7 +27079,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="C15" s="116">
         <v>38126</v>
@@ -27114,7 +27093,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="172" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="C17" s="172"/>
       <c r="D17" s="172"/>
@@ -27123,19 +27102,19 @@
     </row>
     <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B18" s="117" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="C18" s="117" t="s">
         <v>415</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F18" s="117" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -27143,7 +27122,7 @@
         <v>94</v>
       </c>
       <c r="C19" s="114" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D19" s="114">
         <v>120000</v>
@@ -27158,7 +27137,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D20" s="114">
         <v>300000</v>
@@ -27173,7 +27152,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="114" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D21" s="114">
         <v>990000</v>
@@ -27188,7 +27167,7 @@
         <v>312</v>
       </c>
       <c r="C22" s="114" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D22" s="114">
         <v>500000</v>
@@ -27200,10 +27179,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="118" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C23" s="114" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="D23" s="114">
         <v>250000</v>
@@ -27239,7 +27218,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27262,7 +27241,7 @@
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="H2" t="s">
         <v>664</v>
@@ -27273,7 +27252,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="D3">
         <v>95</v>
@@ -27284,7 +27263,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="D4">
         <v>105</v>
@@ -27295,7 +27274,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="D5">
         <v>285</v>
@@ -27306,7 +27285,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -27317,7 +27296,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="D7">
         <v>85</v>
@@ -27328,7 +27307,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -27339,7 +27318,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -27350,7 +27329,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -27361,7 +27340,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -27372,7 +27351,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="D12">
         <v>140</v>
@@ -27383,7 +27362,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -27394,7 +27373,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="D14">
         <v>60</v>
@@ -27402,7 +27381,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -27410,16 +27389,16 @@
         <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="D18" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="E18" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="F18" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -27427,21 +27406,21 @@
         <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="D19" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="E19" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="F19" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="C20">
         <v>80000</v>
@@ -27458,7 +27437,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C21">
         <v>45000</v>
@@ -27475,7 +27454,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -27483,16 +27462,16 @@
         <v>414</v>
       </c>
       <c r="C24" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="D24" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="E24" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="F24" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -29691,7 +29670,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="186" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="B1" s="186"/>
       <c r="C1" s="186"/>
@@ -29877,7 +29856,7 @@
         <v>30000</v>
       </c>
       <c r="G4" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -32868,7 +32847,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -33062,7 +33041,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="169" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="B1" s="169"/>
       <c r="C1" s="169"/>
@@ -33100,16 +33079,16 @@
         <v>62</v>
       </c>
       <c r="H2" s="121" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="I2" s="121" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="J2" s="121" t="s">
         <v>832</v>
       </c>
       <c r="K2" s="121" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="L2" s="121" t="s">
         <v>664</v>
@@ -33268,7 +33247,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="C8" s="77">
         <v>750</v>
@@ -33297,7 +33276,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C9" s="77">
         <v>850</v>
@@ -33729,7 +33708,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="B7" s="78">
         <v>42394</v>
